--- a/data/api_testcases.xlsx
+++ b/data/api_testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/5.8Bei-pytestFarmework/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/5.85.9Bei-pytestFarmework/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4473303-BF83-C44D-AB10-A05E149CC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41087EA5-FDBB-CC4C-A0F5-4CDD20A0F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="500" windowWidth="22060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>method</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>设置状态成功</t>
+  </si>
+  <si>
+    <t>图片上传</t>
+  </si>
+  <si>
+    <t>上传成功</t>
+  </si>
+  <si>
+    <t>图片上传成功</t>
+  </si>
+  <si>
+    <t>/upload</t>
+  </si>
+  <si>
+    <t>{"file": ("1.jpg", open("./file/1.jpg", "rb"), "jpg")}</t>
   </si>
 </sst>
 </file>
@@ -819,8 +834,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B24EE64F-1874-7046-A7BC-15A63347A88F}" name="Table2" displayName="Table2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:R6" xr:uid="{B24EE64F-1874-7046-A7BC-15A63347A88F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B24EE64F-1874-7046-A7BC-15A63347A88F}" name="Table2" displayName="Table2" ref="A1:R7" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R7" xr:uid="{B24EE64F-1874-7046-A7BC-15A63347A88F}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{5C165EF6-3A20-7245-BFD7-3F9F081BEE16}" name="id" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{62EC559E-92AD-7340-A0F7-2E9910582D79}" name="feature" dataDxfId="16"/>
@@ -1130,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1377,9 +1392,7 @@
         <v>44</v>
       </c>
       <c r="Q5" s="11"/>
-      <c r="R5" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10">
@@ -1417,7 +1430,47 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="12" t="b">
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/api_testcases.xlsx
+++ b/data/api_testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/5.85.9Bei-pytestFarmework/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/copy5.85.95.10Bei-pytestFarmework/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41087EA5-FDBB-CC4C-A0F5-4CDD20A0F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4796C-C1FF-9A41-BB05-EA939BEDB3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="500" windowWidth="22060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>method</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>{"file": ("1.jpg", open("./file/1.jpg", "rb"), "jpg")}</t>
+  </si>
+  <si>
+    <t>login成功</t>
+  </si>
+  <si>
+    <t>update成功</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1230,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
@@ -1440,7 +1446,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>52</v>
